--- a/data/trans_orig/Q64D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de minutos que tarda en desplazarse para ir a trabajar</t>
+          <t>Número medio de minutos que utilizan en todos sus desplazamientos para ir a trabajar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,04</t>
+          <t>4,88; 10,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 25,55</t>
+          <t>10,77; 25,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 18,75</t>
+          <t>8,69; 18,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,36</t>
+          <t>2,44; 8,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,09</t>
+          <t>2,78; 8,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 11,73</t>
+          <t>3,76; 11,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 14,76</t>
+          <t>4,97; 13,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,76</t>
+          <t>2,96; 8,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,82</t>
+          <t>4,39; 8,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,18</t>
+          <t>8,57; 17,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,32</t>
+          <t>7,71; 14,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,02</t>
+          <t>3,07; 6,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,6</t>
+          <t>8,08; 14,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 17,35</t>
+          <t>9,01; 18,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,48</t>
+          <t>4,58; 7,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,04</t>
+          <t>4,47; 11,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 16,53</t>
+          <t>7,81; 16,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,92</t>
+          <t>7,93; 17,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,68</t>
+          <t>3,89; 10,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,79</t>
+          <t>5,98; 19,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,94</t>
+          <t>8,99; 13,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,25</t>
+          <t>9,31; 15,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,29</t>
+          <t>4,54; 7,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,99</t>
+          <t>5,82; 11,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,59</t>
+          <t>3,98; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,21</t>
+          <t>2,49; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,65</t>
+          <t>4,86; 11,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,74</t>
+          <t>4,19; 11,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,66</t>
+          <t>3,55; 10,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,48</t>
+          <t>3,68; 9,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,97</t>
+          <t>4,9; 16,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 15,2</t>
+          <t>7,92; 14,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,42</t>
+          <t>4,29; 8,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,53</t>
+          <t>3,24; 6,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,56</t>
+          <t>5,69; 12,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,58</t>
+          <t>6,67; 12,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,21</t>
+          <t>5,28; 12,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 15,41</t>
+          <t>6,55; 15,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 33,67</t>
+          <t>14,47; 33,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,04</t>
+          <t>4,88; 14,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,98</t>
+          <t>5,09; 12,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,79</t>
+          <t>4,04; 12,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 18,85</t>
+          <t>7,18; 19,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 14,43</t>
+          <t>3,45; 14,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,78</t>
+          <t>5,83; 10,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,87</t>
+          <t>6,12; 11,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 24,06</t>
+          <t>12,24; 23,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,12</t>
+          <t>4,57; 12,18</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,46</t>
+          <t>5,56; 12,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 12,93</t>
+          <t>3,88; 12,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,54</t>
+          <t>3,18; 10,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,38; 56,08</t>
+          <t>37,11; 56,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,62; 29,98</t>
+          <t>13,56; 29,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 21,79</t>
+          <t>5,87; 22,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 14,04</t>
+          <t>3,53; 14,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 63,41</t>
+          <t>44,77; 63,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,58</t>
+          <t>8,92; 16,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,28</t>
+          <t>6,0; 14,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,1</t>
+          <t>4,02; 10,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 56,84</t>
+          <t>43,09; 57,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 32,75</t>
+          <t>5,08; 29,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,62</t>
+          <t>4,05; 10,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 23,76</t>
+          <t>3,96; 24,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,8</t>
+          <t>5,1; 14,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,05</t>
+          <t>3,05; 8,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 23,37</t>
+          <t>4,5; 22,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 27,95</t>
+          <t>5,53; 29,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 20,59</t>
+          <t>5,62; 19,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 19,43</t>
+          <t>4,96; 21,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 13,09</t>
+          <t>4,97; 12,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 19,03</t>
+          <t>5,25; 18,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,61</t>
+          <t>6,06; 14,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,74</t>
+          <t>6,45; 12,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,44</t>
+          <t>5,29; 11,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,12</t>
+          <t>8,86; 15,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 36,24</t>
+          <t>23,16; 36,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,18</t>
+          <t>5,52; 11,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,71</t>
+          <t>5,14; 10,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 16,08</t>
+          <t>10,03; 15,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,96</t>
+          <t>15,75; 22,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,6</t>
+          <t>6,84; 10,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,94</t>
+          <t>5,74; 10,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,4</t>
+          <t>10,03; 14,22</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,26; 27,99</t>
+          <t>20,73; 28,08</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,06</t>
+          <t>10,61; 17,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,19</t>
+          <t>6,04; 10,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,86</t>
+          <t>6,21; 11,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,6; 30,8</t>
+          <t>5,79; 30,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,36</t>
+          <t>6,59; 12,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,28</t>
+          <t>6,84; 11,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,7; 14,84</t>
+          <t>7,91; 15,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,09; 32,37</t>
+          <t>20,72; 33,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,86</t>
+          <t>9,98; 14,65</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,98</t>
+          <t>6,98; 10,02</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,03</t>
+          <t>7,66; 11,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,88; 28,84</t>
+          <t>8,51; 28,86</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,6</t>
+          <t>8,71; 11,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,4</t>
+          <t>7,65; 10,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,74</t>
+          <t>8,55; 11,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 19,25</t>
+          <t>9,74; 19,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,86</t>
+          <t>7,39; 9,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,01</t>
+          <t>7,25; 9,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,06</t>
+          <t>8,85; 12,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,07; 18,07</t>
+          <t>13,08; 17,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,51</t>
+          <t>8,51; 10,64</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,76</t>
+          <t>7,72; 9,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,26</t>
+          <t>9,23; 11,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,92</t>
+          <t>11,73; 17,89</t>
         </is>
       </c>
     </row>
